--- a/Specifications (仕様書)/BD (基本設計)/Database.xlsx
+++ b/Specifications (仕様書)/BD (基本設計)/Database.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng quan" sheetId="1" r:id="rId1"/>
     <sheet name="Diagram" sheetId="2" r:id="rId2"/>
     <sheet name="Bảng NguoiDung" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Bảng CuTru" sheetId="4" r:id="rId4"/>
+    <sheet name="Bảng LoaiCuTru" sheetId="5" r:id="rId5"/>
+    <sheet name="Bảng LoaiChucVu" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="78">
   <si>
     <t>Tác giả:</t>
   </si>
@@ -190,13 +192,79 @@
   </si>
   <si>
     <t>Lưu toàn bộ thông tin người dùng (Công Dân và Cán Bộ)</t>
+  </si>
+  <si>
+    <t>Cư Trú</t>
+  </si>
+  <si>
+    <t>Lưu thông tin Cư Trú</t>
+  </si>
+  <si>
+    <t>NgayTao</t>
+  </si>
+  <si>
+    <t>Ngày tạo</t>
+  </si>
+  <si>
+    <t>NgayDangKy</t>
+  </si>
+  <si>
+    <t>Ngày đăng ký cư trú</t>
+  </si>
+  <si>
+    <t>DaDuyet</t>
+  </si>
+  <si>
+    <t>Đã duyệt hay chưa</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>LoaiCuTruId</t>
+  </si>
+  <si>
+    <t>Mã loại cư trú</t>
+  </si>
+  <si>
+    <t>CanBoId</t>
+  </si>
+  <si>
+    <t>Mã cán bộ</t>
+  </si>
+  <si>
+    <t>NgayHetHan</t>
+  </si>
+  <si>
+    <t>Ngày hết hạn</t>
+  </si>
+  <si>
+    <t>Loại Cư Trú</t>
+  </si>
+  <si>
+    <t>Phân biệt loại cư trú</t>
+  </si>
+  <si>
+    <t>Ten</t>
+  </si>
+  <si>
+    <t>Loại Chức Vụ</t>
+  </si>
+  <si>
+    <t>Phân biệt loại công dân</t>
+  </si>
+  <si>
+    <t>Tên loại cư trú</t>
+  </si>
+  <si>
+    <t>Tên chức vụ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +288,12 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -266,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -274,6 +348,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -670,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -680,7 +761,7 @@
     <col min="2" max="2" width="24.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -713,7 +794,7 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -730,7 +811,7 @@
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
@@ -745,7 +826,7 @@
       <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -762,7 +843,7 @@
       <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
@@ -777,7 +858,7 @@
       <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
@@ -792,8 +873,8 @@
       <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>21</v>
+      <c r="E10" s="7">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -809,7 +890,7 @@
       <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -826,7 +907,7 @@
       <c r="D12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -843,7 +924,7 @@
       <c r="D13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -860,7 +941,7 @@
       <c r="D14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -877,7 +958,7 @@
       <c r="D15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -894,7 +975,7 @@
       <c r="D16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -911,8 +992,8 @@
       <c r="D17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>21</v>
+      <c r="E17" s="7">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -928,7 +1009,7 @@
       <c r="D18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -945,8 +1026,8 @@
       <c r="D19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>21</v>
+      <c r="E19" s="7">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -962,7 +1043,7 @@
       <c r="D20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="7">
         <v>128</v>
       </c>
     </row>
@@ -979,7 +1060,7 @@
       <c r="D21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -988,12 +1069,441 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Specifications (仕様書)/BD (基本設計)/Database.xlsx
+++ b/Specifications (仕様書)/BD (基本設計)/Database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng quan" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="78">
   <si>
     <t>Tác giả:</t>
   </si>
@@ -89,9 +89,6 @@
     <t>not null</t>
   </si>
   <si>
-    <t>MAX</t>
-  </si>
-  <si>
     <t>GioiTinh</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>Tên chức vụ</t>
+  </si>
+  <si>
+    <t>Phường</t>
   </si>
 </sst>
 </file>
@@ -680,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -775,10 +775,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -811,7 +811,9 @@
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
@@ -826,19 +828,19 @@
       <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
+      <c r="E7" s="7">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>20</v>
@@ -847,13 +849,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>20</v>
@@ -862,10 +864,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>19</v>
@@ -879,118 +881,118 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
+      <c r="E11" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
+      <c r="E12" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>21</v>
+      <c r="E13" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>21</v>
+      <c r="E14" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="E15" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>21</v>
+      <c r="E16" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="7">
         <v>20</v>
@@ -998,33 +1000,33 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="E18" s="7">
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="C19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="7">
         <v>20</v>
@@ -1032,16 +1034,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="7">
         <v>128</v>
@@ -1049,18 +1051,20 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="E21" s="7">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1069,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1090,15 +1094,15 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1131,17 +1135,19 @@
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>20</v>
@@ -1150,13 +1156,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>20</v>
@@ -1165,13 +1171,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>20</v>
@@ -1180,10 +1186,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>19</v>
@@ -1197,27 +1203,27 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
+      <c r="E11" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>19</v>
@@ -1225,16 +1231,16 @@
       <c r="D12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
+      <c r="E12" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>19</v>
@@ -1242,88 +1248,111 @@
       <c r="D13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>21</v>
+      <c r="E13" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="7">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="E15" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="E16" s="7">
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="E17" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="E18" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="7">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1354,15 +1383,15 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1399,16 +1428,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="5">
         <v>20</v>
@@ -1443,15 +1472,15 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1476,7 +1505,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>15</v>
@@ -1488,16 +1517,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="5">
         <v>30</v>

--- a/Specifications (仕様書)/BD (基本設計)/Database.xlsx
+++ b/Specifications (仕様書)/BD (基本設計)/Database.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="77">
   <si>
     <t>Tác giả:</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Phuong</t>
   </si>
   <si>
-    <t>Địa chỉ cư trú</t>
-  </si>
-  <si>
     <t>Quan</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>QueQuan</t>
   </si>
   <si>
-    <t>Quên quán</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -258,6 +252,9 @@
   </si>
   <si>
     <t>Phường</t>
+  </si>
+  <si>
+    <t>Quê quán</t>
   </si>
 </sst>
 </file>
@@ -751,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -775,10 +772,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -901,7 +898,7 @@
         <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>19</v>
@@ -915,10 +912,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>19</v>
@@ -932,10 +929,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>19</v>
@@ -949,16 +946,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" s="7">
         <v>32</v>
@@ -966,16 +963,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="E16" s="7">
         <v>32</v>
@@ -983,16 +980,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="7">
         <v>20</v>
@@ -1000,16 +997,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="7">
         <v>256</v>
@@ -1017,16 +1014,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" s="7">
         <v>20</v>
@@ -1034,16 +1031,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" s="7">
         <v>128</v>
@@ -1051,16 +1048,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" s="7">
         <v>10</v>
@@ -1094,15 +1091,15 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1141,10 +1138,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>26</v>
@@ -1156,10 +1153,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>26</v>
@@ -1171,10 +1168,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>26</v>
@@ -1223,7 +1220,7 @@
         <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>19</v>
@@ -1237,10 +1234,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>19</v>
@@ -1254,10 +1251,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>19</v>
@@ -1271,10 +1268,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>23</v>
@@ -1288,16 +1285,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="7">
         <v>64</v>
@@ -1305,10 +1302,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>19</v>
@@ -1322,16 +1319,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E18" s="7">
         <v>10</v>
@@ -1339,16 +1336,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E19" s="7">
         <v>10</v>
@@ -1383,15 +1380,15 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1428,16 +1425,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5">
         <v>20</v>
@@ -1472,15 +1469,15 @@
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1505,7 +1502,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>15</v>
@@ -1517,16 +1514,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5">
         <v>30</v>
